--- a/server/file/empl.xlsx
+++ b/server/file/empl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvc\Projekti\primeri\react-ts-flask\server\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321D962-45BC-49F1-BFA0-DA532C0EC6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533FE78-1D2B-4503-AA94-0B8E61F35B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Office worker </t>
   </si>
@@ -163,6 +163,39 @@
   </si>
   <si>
     <t>Gas attendant </t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Caretaker</t>
+  </si>
+  <si>
+    <t>Bus driver</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Optician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#tech </t>
   </si>
 </sst>
 </file>
@@ -203,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +541,7 @@
     <col min="1" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -569,8 +605,38 @@
       <c r="U1" s="1">
         <v>20</v>
       </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,8 +700,38 @@
       <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -699,73 +795,133 @@
       <c r="U3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -829,8 +985,38 @@
       <c r="U5" s="1">
         <v>0</v>
       </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -894,8 +1080,38 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -959,6 +1175,42 @@
       <c r="U7" s="1">
         <v>20</v>
       </c>
+      <c r="V7" s="1">
+        <v>21</v>
+      </c>
+      <c r="W7" s="1">
+        <v>22</v>
+      </c>
+      <c r="X7" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
